--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/9 ANALISIS DE ANTIGUEDAD DE SALDOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/9 ANALISIS DE ANTIGUEDAD DE SALDOS.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F01895-8123-47E9-A6CB-2E0F30D1A3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9EFD36-6E7C-4F70-90A3-3B35BD76C066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="4" state="veryHidden" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -45,12 +36,6 @@
   </si>
   <si>
     <t>Reviso:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                               Entidad XXXXXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  Auditoria de Estados Financieros</t>
   </si>
   <si>
     <t>Pruebas de Análisis de Antigüedad de Saldos</t>
@@ -160,9 +145,6 @@
     <t>Caso en cobranza jurídica</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                     Del 01 de enero al 31 de diciembre del 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">El análisis de antigüedad de saldos implica clasificar las cuentas por cobrar y las cuentas por pagar según el tiempo transcurrido desde la fecha de la última transacción. </t>
   </si>
   <si>
@@ -180,9 +162,6 @@
       </rPr>
       <t xml:space="preserve">: Analizar las cuentas por cobrar que tienen más de 90 días de antigüedad. Investigar la razón de los saldos antiguos. </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">        Pruebas de Pruebas de Análisis de Antigüedad de Saldos</t>
   </si>
   <si>
     <t>a. Problemas en la cobranza de cuentas.</t>
@@ -266,11 +245,23 @@
   <si>
     <t>B-9</t>
   </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Pruebas de Pruebas de Análisis de Antigüedad de Saldos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -411,11 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -436,9 +423,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -451,6 +435,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,28 +554,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D24:H28" headerRowDxfId="1">
-  <autoFilter ref="D24:H28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="D24:H28" headerRowDxfId="1">
+  <autoFilter ref="D24:H28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="CLIENTE" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="SALDO VENCIDO"/>
-    <tableColumn id="3" name="ANTIGÜEDAD"/>
-    <tableColumn id="4" name="PROBABILIDAD DE RECUPERACIÓN"/>
-    <tableColumn id="5" name="OBSERVACIONES"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CLIENTE" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SALDO VENCIDO"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ANTIGÜEDAD"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PROBABILIDAD DE RECUPERACIÓN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="OBSERVACIONES"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="D33:H37" headerRowDxfId="0">
-  <autoFilter ref="D33:H37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="D33:H37" headerRowDxfId="0">
+  <autoFilter ref="D33:H37" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="CLIENTE" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="SALDO VENCIDO"/>
-    <tableColumn id="3" name="AJUSTES REGISTRADOS"/>
-    <tableColumn id="4" name="CANCELACIONES INUSUALES"/>
-    <tableColumn id="5" name="OBSERVACIONES"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CLIENTE" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SALDO VENCIDO"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="AJUSTES REGISTRADOS"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="CANCELACIONES INUSUALES"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="OBSERVACIONES"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -879,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -894,11 +887,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -925,20 +918,20 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="30" t="s">
-        <v>62</v>
+      <c r="I2" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="12"/>
+      <c r="D3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -946,11 +939,12 @@
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="12"/>
+      <c r="D4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="I4" s="6" t="s">
         <v>0</v>
       </c>
@@ -960,12 +954,12 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="D5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
       <c r="I5" s="6" t="s">
         <v>1</v>
       </c>
@@ -975,12 +969,12 @@
     <row r="6" spans="2:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
       <c r="I6" s="6" t="s">
         <v>2</v>
       </c>
@@ -999,247 +993,247 @@
       <c r="K7" s="5"/>
     </row>
     <row r="9" spans="2:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D24" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
+      <c r="E24" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E23" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D24" s="21" t="s">
+      <c r="F24" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="G24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="H24" s="19" t="s">
         <v>13</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
         <v>21</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
         <v>26</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>27</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>28</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>32</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>33</v>
       </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="27" t="s">
-        <v>56</v>
+      <c r="E32" s="24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="D33" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="20"/>
+      <c r="D33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="18"/>
     </row>
     <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1250,8 +1244,8 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="28" t="s">
-        <v>59</v>
+      <c r="B39" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1262,13 +1256,13 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="29" t="s">
-        <v>60</v>
+      <c r="B40" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="29" t="s">
-        <v>61</v>
+      <c r="B41" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
@@ -1278,14 +1272,14 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="23" t="s">
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H47" s="8"/>
@@ -1308,6 +1302,12 @@
       <c r="M55" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.74803149606299213" top="0.43307086614173229" bottom="0.43307086614173229" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
